--- a/experiment_results/13405P16.xlsx
+++ b/experiment_results/13405P16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1117"/>
+  <dimension ref="A1:I1127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353ORSAYLOUVRE</t>
+          <t>PRODUCTCODE: 31070P157</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Louvre and Musée d’Orsay guided museum tour. Spend 5.5 hours immersed in the treasures of these two iconic museums with one of our energetic and enthusiastic guides.</t>
+          <t>Summarized description: The Orangerie Museum (Musée de l’Orangerie) is a little museum with surprising collections. They are particularly emphasized by the Water Lilies (Les Nymphéas) by Claude Monet. The paintings are known to be a shelter for quiet meditation.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum &amp; Musée d'Orsay (Reserved Entry Included) - Semi-Private 8ppl Max</t>
+          <t>Title: Musée de l'Orangerie Dedicate Entrance Tickets</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 446</t>
+          <t>TotalReviews: 60</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353PRIVATELOU_ORS</t>
+          <t>PRODUCTCODE: 70820P2</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy reserved timed entry tickets and expert guided tour of these world-famous museums. Journey through the history of art, from Greek antiquity to the post–Impressionists, while learning about the pieces from your expert private guide.</t>
+          <t>Summarized description: The Musée de l’Orangerie is housed in a beautiful Beaux-Arts building in the Tuileries gardens. The museum is best known for the ‘Nymphéas’ water lilies by Claude Monet.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum &amp; Musée d'Orsay - Exclusive Guided Tour (Reserved Entry Included!)</t>
+          <t>Title: Skip the Line: Musee de l'Orangerie Reserved Access Ticket</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 175</t>
+          <t>TotalReviews: 48</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353ORSAY</t>
+          <t>PRODUCTCODE: 6353P22</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: 5.5 hour semi-private (8 guest maximum) guided combo museum &amp; walking tour explores origins of the Impressionist movement. Start at Orsay Museum where you will enter directly into its main collection of artwork by the likes of Monet and Cezanne. Then head to the Montmartre neighborhood and experience the surrounding that is the background of the impressionist's lives.</t>
+          <t>Summarized description: The Orangerie is a former home for royal orange trees. It houses artwork by some of France’s most notable names. On this 2 hour exclusive guided museum tour, your expert guide will lead you through history to explain why this unique collection is one of the best in Paris.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay &amp; Montmartre - Semi-Private 8ppl Max (Reserved Entry Included!)</t>
+          <t>Title: Orangerie Museum Paris Exclusive Tour Reserved Entry Included</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 45</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31070P157</t>
+          <t>PRODUCTCODE: 6353P21</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: The Orangerie Museum (Musée de l’Orangerie) is a little museum with surprising collections. They are particularly emphasized by the Water Lilies (Les Nymphéas) by Claude Monet. The paintings are known to be a shelter for quiet meditation.</t>
+          <t>Summarized description: Former home for royal orange trees, the Orangerie today houses artwork by some of France’s most notable names. Expert guide will lead you through history to explain why this unique, yet overlooked collection is one of the best in Paris.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie Dedicate Entrance Tickets</t>
+          <t>Title: Orangerie Museum Tour Semi Private 8ppl Max With Reserved Entry</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 60</t>
+          <t>TotalReviews: 35</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70820P2</t>
+          <t>PRODUCTCODE: 2050P207</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: The Musée de l’Orangerie is housed in a beautiful Beaux-Arts building in the Tuileries gardens. The museum is best known for the ‘Nymphéas’ water lilies by Claude Monet.</t>
+          <t>Summarized description: Orangerie Entrance ticket can be redeemed at the Tuileries Gardens (nearby Concorde) A peaceful Sanctuary for Arts'lovers, guaranteed to skip the lines.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Musee de l'Orangerie Reserved Access Ticket</t>
+          <t>Title: Skip the Line: Musee de l'Orangerie Ticket</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 48</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P22</t>
+          <t>PRODUCTCODE: 239922P13</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: The Orangerie is a former home for royal orange trees. It houses artwork by some of France’s most notable names. On this 2 hour exclusive guided museum tour, your expert guide will lead you through history to explain why this unique collection is one of the best in Paris.</t>
+          <t>Summarized description: With a restricted access day ticket to the Musée de l'Orangerie, you can take your time exploring one of Paris's best art museums. See large polyptychs by Joan Mitchell and large-scale works by the modern 'primitives'</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Paris Exclusive Tour Reserved Entry Included</t>
+          <t>Title: Musée de l'Orangerie Reserved Access And Audio Guided</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P21</t>
+          <t>PRODUCTCODE: 302481P37</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Former home for royal orange trees, the Orangerie today houses artwork by some of France’s most notable names. Expert guide will lead you through history to explain why this unique, yet overlooked collection is one of the best in Paris.</t>
+          <t>Summarized description: The mobile app helps you explore the Orangerie Museum with a private audio tour. You will have a fast-track entrance with a PDF ticket we will send to you. All you need is a mobile phone. Download tours in advance to listen without WiFi.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Tour Semi Private 8ppl Max With Reserved Entry</t>
+          <t>Title: Musée de l'Orangerie Entrance Ticket with Audio Tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 35</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P207</t>
+          <t>PRODUCTCODE: 239343P22</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Orangerie Entrance ticket can be redeemed at the Tuileries Gardens (nearby Concorde) A peaceful Sanctuary for Arts'lovers, guaranteed to skip the lines.</t>
+          <t>Summarized description: The Musée d'Orsay houses works by Monet, Renoir, Manet, Cézanne, Degas, and Van Gogh. The museum is located inside a magnificent railroad station from the 19th century. The Musée de l'Orangerie is one of Paris's best art museums.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Musee de l'Orangerie Ticket</t>
+          <t>Title: Musée de l'Orangerie &amp; Musée de Orsay Reserved Access</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239922P13</t>
+          <t>PRODUCTCODE: 3207ORSAY</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: With a restricted access day ticket to the Musée de l'Orangerie, you can take your time exploring one of Paris's best art museums. See large polyptychs by Joan Mitchell and large-scale works by the modern 'primitives'</t>
+          <t>Summarized description: Get an up-close look at the masterpieces of Impressionism at the Musée d'Orsay and Musée de l'Orangerie. Admire beautiful works of art, including Monet's incredible 'Water Lillies' series and Renoir’s 'Bal du Moulin de la Galette'</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie Reserved Access And Audio Guided</t>
+          <t>Title: Private Art History Walking Tour: Musée d'Orsay and Musée de l'Orangerie</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P37</t>
+          <t>PRODUCTCODE: 247361P22</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: The mobile app helps you explore the Orangerie Museum with a private audio tour. You will have a fast-track entrance with a PDF ticket we will send to you. All you need is a mobile phone. Download tours in advance to listen without WiFi.</t>
+          <t>Summarized description: Museum houses works from the French Impressionist and Post-Impressionist eras. Monet's Water Lilies Room, works by Picasso or Renoir, among many reknown artists.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie Entrance Ticket with Audio Tour</t>
+          <t>Title: Entrance ticket to the Musée de L'Orangerie and audio guide</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3207ORSAY</t>
+          <t>PRODUCTCODE: 100589P5</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Get an up-close look at the masterpieces of Impressionism at the Musée d'Orsay and Musée de l'Orangerie. Admire beautiful works of art, including Monet's incredible 'Water Lillies' series and Renoir’s 'Bal du Moulin de la Galette'</t>
+          <t>Summarized description: 120 minutes private visit of the Orsay museum, a journey to the vibrating years of the 19th century art. Your guide will show you the high-lights of Orsay in a fun and efficient way.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Private Art History Walking Tour: Musée d'Orsay and Musée de l'Orangerie</t>
+          <t xml:space="preserve">Title:  Private Tour to Paris Orsay Museum </t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247361P22</t>
+          <t>PRODUCTCODE: 192144P2</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Museum houses works from the French Impressionist and Post-Impressionist eras. Monet's Water Lilies Room, works by Picasso or Renoir, among many reknown artists.</t>
+          <t>Summarized description: Osay Museum houses one of the world's largest collection of impressionist paintings. Skip the Line and Explore the Orsay Museum with your Private Guide. The magic of this former 1900s World's Fair train station comes to life.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Entrance ticket to the Musée de L'Orangerie and audio guide</t>
+          <t>Title: Orsay Private Tour with your own Art Historian Guide</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7832P155</t>
+          <t>PRODUCTCODE: 132681P39</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: With this combo tour, benefit from entry to 2 of the most famous cultural museums in Paris and the Palais Garnier. Marvel at the world-famous works of art in the prestigious permanent collections and temporary exhibitions of the Musée d'Orsay and Musée de l'Orangerie in the Tuileries Gardens.</t>
+          <t>Summarized description: Explore the Musée d’Orsay on a 2-hour private guided tour. Learn about the masterpieces you’ll see during the tour and discuss the works that interest you most with your expert guide.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Orsay Museum Skip the Ticket Line Access with Orangerie &amp; Palais Garnier </t>
+          <t>Title: Private Guided Tour Orsay Museum</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108889P24</t>
+          <t>PRODUCTCODE: 128905P167</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour with an expert of the 19th century art history. See the major masterpieces of the D'Orsay Museum. You will be able to ask all the questions you wanted.</t>
+          <t>Summarized description: Musée de l'Orangerie is an art gallery of impressionist and post-impressionist paintings. Admire Claude Monet's Water Lilies. Learn all about the impressionist movement.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay Essential Private tour</t>
+          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE Entrance ticket</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P4</t>
+          <t>PRODUCTCODE: 332536P609</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: The Musée d’Orsay is home to some of the world’s greatest masterpieces. Book a 2-hour private tour of up to 7 people and be led to the most iconic pieces by your expert local guide.</t>
+          <t>Summarized description: 3,5-hour round-trip transfer to the Musée de l'Orangerie in Paris. 4,000-year-old Musée d'Orsay in Paris is the world's oldest and most famous museum.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Private 2-Hour Musée d'Orsay Small-Group Tour</t>
+          <t>Title: Skip-the-line Musée de l'Orangerie and d'Orsay with Guide</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132681P39</t>
+          <t>PRODUCTCODE: 13437P32</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Musée d’Orsay on a 2-hour private guided tour. Learn about the masterpieces you’ll see during the tour and discuss the works that interest you most with your expert guide.</t>
+          <t>Summarized description: Discover Impressionist and Post-Impressionist masters during your 2-hour tour of the Orangerie Museum. Admire the unique exhibition with 8 of the great Water Lilies compositions by Monet.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Private Guided Tour Orsay Museum</t>
+          <t>Title: Orangerie Museum Exclusive Guided Skip the Line Visit</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P167</t>
+          <t>PRODUCTCODE: 9204P39</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Musée de l'Orangerie is an art gallery of impressionist and post-impressionist paintings. Admire Claude Monet's Water Lilies. Learn all about the impressionist movement.</t>
+          <t>Summarized description: Immerse yourself in the colourful and expressive world of the Impressionists in this exclusively private, skip-the-line excursion of the Musée d’Orsay. A group max of 6 people means quality time with your own personal art historian as you journey along a timeline of unprecedented artistic achievement.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE Entrance ticket</t>
+          <t>Title: Musée d'Orsay: 2-Hour Private Tour with Reserved Access</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P32</t>
+          <t>PRODUCTCODE: 110930P3</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Impressionist and Post-Impressionist masters during your 2-hour tour of the Orangerie Museum. Admire the unique exhibition with 8 of the great Water Lilies compositions by Monet.</t>
+          <t>Summarized description: Art historian, curator of international exhibitions, teacher. Art is a passion and it is my profession. It is an infinity of stories to unveil, to tell, to share.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Exclusive Guided Skip the Line Visit</t>
+          <t>Title: A Private Visit to the Musée d'Orsay</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9204P39</t>
+          <t>PRODUCTCODE: 90219P390</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the colourful and expressive world of the Impressionists in this exclusively private, skip-the-line excursion of the Musée d’Orsay. A group max of 6 people means quality time with your own personal art historian as you journey along a timeline of unprecedented artistic achievement.</t>
+          <t>Summarized description: Orsay Museum and Orangerie Museum offer a combined skip-the-line entry ticket. See Monet's "Water Lilies" cycle of paintings at both venues.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay: 2-Hour Private Tour with Reserved Access</t>
+          <t>Title: Paris: Best Historic Orsay and Orangerie Museums Ticket</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110930P3</t>
+          <t>PRODUCTCODE: 59104P45</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Art historian, curator of international exhibitions, teacher. Art is a passion and it is my profession. It is an infinity of stories to unveil, to tell, to share.</t>
+          <t>Summarized description: The Orangerie Museum is an art gallery of impressionist and post-impressionist paintings and modern art from the beginning of the century. It is located at the Place de la Concorde in Paris.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: A Private Visit to the Musée d'Orsay</t>
+          <t>Title: Skip the Line: Tickets to L'orangerie &amp; Orsay Museums</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P390</t>
+          <t>PRODUCTCODE: 248877P41</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Orsay Museum and Orangerie Museum offer a combined skip-the-line entry ticket. See Monet's "Water Lilies" cycle of paintings at both venues.</t>
+          <t>Summarized description: Get access to both the Orsay Museum and to the Orangerie Museum in the Tuileries Gardens. Marvel at works of art by a selection of world-famous artists in the prestigious permanent collections and temporary exhibitions. See Monet's "Water Lilies" cycle of paintings.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Paris: Best Historic Orsay and Orangerie Museums Ticket</t>
+          <t>Title: Paris: Exclusive Orsay Museum and Oragerie Museums Visit (Direct Entry)</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 59104P45</t>
+          <t>PRODUCTCODE: 128905P295</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The Orangerie Museum is an art gallery of impressionist and post-impressionist paintings and modern art from the beginning of the century. It is located at the Place de la Concorde in Paris.</t>
+          <t>Summarized description: The Musée d'Orsay has works by Gauguin, Monet, Manet, Degas, Renoir, Cézanne, and Van Gogh. The Musée de l'Orangerie is most famous for its massive Water Lilies.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Tickets to L'orangerie &amp; Orsay Museums</t>
+          <t>Title: Musée d'Orsay &amp; Musée de l'Orangerie: Dedicated Entrance &amp; Audio Tour</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P41</t>
+          <t>PRODUCTCODE: 7824P21</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Get access to both the Orsay Museum and to the Orangerie Museum in the Tuileries Gardens. Marvel at works of art by a selection of world-famous artists in the prestigious permanent collections and temporary exhibitions. See Monet's "Water Lilies" cycle of paintings.</t>
+          <t>Summarized description: The Orangerie Museum in Paris is home to one of the most famous paintings of all time, The Water Lilies by Claude Monet. Other works by Cézanne, Gaugin, Picasso, and many more are also on display.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Paris: Exclusive Orsay Museum and Oragerie Museums Visit (Direct Entry)</t>
+          <t>Title: Orangerie Museum Private Tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P295</t>
+          <t>PRODUCTCODE: 226727P18</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The Musée d'Orsay has works by Gauguin, Monet, Manet, Degas, Renoir, Cézanne, and Van Gogh. The Musée de l'Orangerie is most famous for its massive Water Lilies.</t>
+          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on WeGoTrip App (included)</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay &amp; Musée de l'Orangerie: Dedicated Entrance &amp; Audio Tour</t>
+          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Audio Tour on Mobile App</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7824P21</t>
+          <t>PRODUCTCODE: 422159P11</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: The Orangerie Museum in Paris is home to one of the most famous paintings of all time, The Water Lilies by Claude Monet. Other works by Cézanne, Gaugin, Picasso, and many more are also on display.</t>
+          <t>Summarized description: The L'Orangerie Museum is a jewel of art in Paris, notable for housing Claude Monet's impressive "Water Lilies" series. The museum exhibits a valuable collection of Impressionist and Post-Impressionist art by artists such as Renoir, Cézanne, Modigliani, Picasso.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Private Tour</t>
+          <t>Title: Ticket to the L'Orangerie Museum</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 226727P18</t>
+          <t>PRODUCTCODE: 224477P8</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on WeGoTrip App (included)</t>
+          <t>Summarized description: Take an exclusive and engaging tour of the Orsay and Orangerie with an art history professor. The Orsay is home to one of the most stunning collections of Impressionist masterpieces. We'll discover the artists whose innovations paved the way for the Impressionists.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Audio Tour on Mobile App</t>
+          <t>Title: Private Combo Orsay &amp; Orangerie Art History Tour with Professor Jimerson</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 422159P11</t>
+          <t>PRODUCTCODE: 2050GCO</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: The L'Orangerie Museum is a jewel of art in Paris, notable for housing Claude Monet's impressive "Water Lilies" series. The museum exhibits a valuable collection of Impressionist and Post-Impressionist art by artists such as Renoir, Cézanne, Modigliani, Picasso.</t>
+          <t>Summarized description: Full-day art tour to Giverny, Chatou and Musée de l'Orangerie in Paris. Led by a guide, the tour showcases the lives of the Impressionist trend setters.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Ticket to the L'Orangerie Museum</t>
+          <t>Title: Impressionist Art Tour: Giverny, Chatou and Musée de l'Orangerie</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 224477P8</t>
+          <t>PRODUCTCODE: 224207P2</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Take an exclusive and engaging tour of the Orsay and Orangerie with an art history professor. The Orsay is home to one of the most stunning collections of Impressionist masterpieces. We'll discover the artists whose innovations paved the way for the Impressionists.</t>
+          <t>Summarized description: Follow me inside the fascinating Orsay museum, where all the Monet, Van Gogh and Renoir masterpieces keep their secrets. I also do private tours of the Louvre and Rodin museums, as well as street art tours and french lessons.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Private Combo Orsay &amp; Orangerie Art History Tour with Professor Jimerson</t>
+          <t>Title: Orsay museum private tour: The revolution of French art</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 192121P1</t>
+          <t>PRODUCTCODE: 2050MOG</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Half day tour can be perfectly combined with an Orsay museum (Impressionist masterpieces) or the Orangerie museum (Monet's waterlilies and other impressionist works)</t>
+          <t>Summarized description: Full-day tour led by an art-expert guide. See Monet's famous ‘Water Lilies’ in Giverny. Explore Monet’s gardens with your guide.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Impressionist Paris</t>
+          <t>Title: Impressionist Art Tour: Musée de l'Orangerie, Monet's Gardens and Giverny</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050MOG</t>
+          <t>PRODUCTCODE: 242324P22</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day tour led by an art-expert guide. See Monet's famous ‘Water Lilies’ in Giverny. Explore Monet’s gardens with your guide.</t>
+          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on Surprise Me App (included)</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Impressionist Art Tour: Musée de l'Orangerie, Monet's Gardens and Giverny</t>
+          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Private Audio Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 242324P22</t>
+          <t>PRODUCTCODE: 20455P325</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on Surprise Me App (included)</t>
+          <t>Summarized description: You will walk around the paintings and the sculptures of renowed artists such as Monet, Van Gogh, Renoir and many more. An art guide will lead you through the masterpieces and will share with you insights.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Private Audio Tour</t>
+          <t>Title: Musée d'Orsay Private Guided Tour in Paris</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29942P33</t>
+          <t>PRODUCTCODE: 156946P9</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Our tour guides are art historians and experts in the specific periods &amp; movements represented in the Musée d'Orsay. Their extensive knowledge allows them to provide detailed insights into the historical context, artistic techniques, and the lives of the artists.</t>
+          <t>Summarized description: You won't get lost because you will have a guide. I am going to share with you all the secrets of the museum. You will have fun while learning. The tour fit at your pace.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: 2 Hours Private Guided Walking Tour in Orsay Museum</t>
+          <t>Title: Musée d'Orsay private tour</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 71076P25</t>
+          <t>PRODUCTCODE: 29942P33</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: This in-app audio tour explains how Impressionism was born and how Monet's painting technique evolved over time. You will gain insights on the genesis of the Water Lily collection and how the Orangerie was adapted.</t>
+          <t>Summarized description: Our tour guides are art historians and experts in the specific periods &amp; movements represented in the Musée d'Orsay. Their extensive knowledge allows them to provide detailed insights into the historical context, artistic techniques, and the lives of the artists.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Ticket with In-App Guide: Experience the Power of Impressionism</t>
+          <t>Title: 2 Hours Private Guided Walking Tour in Orsay Museum</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P673</t>
+          <t>PRODUCTCODE: 6159P27</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour of the Orsay Museum in Paris. Get to know its most important pieces of art with your private official art specialised tour guide.</t>
+          <t>Summarized description: The Rodin Museum and Orsay Museum offer a combined tour of the two museums. Includes a 1.5-hour guided tour of Rodin's famous "The Thinker"</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Private visit to Orsay Museum with tour guide</t>
+          <t>Title: Orsay Rodin Museums Private Tour</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 71076P25</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17254,6 +17254,156 @@
       <c r="H1117" t="inlineStr"/>
       <c r="I1117" t="inlineStr"/>
     </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Summarized description: This in-app audio tour explains how Impressionism was born and how Monet's painting technique evolved over time. You will gain insights on the genesis of the Water Lily collection and how the Orangerie was adapted.</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr"/>
+      <c r="E1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr"/>
+      <c r="H1118" t="inlineStr"/>
+      <c r="I1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>Title: Orangerie Museum Ticket with In-App Guide: Experience the Power of Impressionism</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr"/>
+      <c r="E1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
+      <c r="H1119" t="inlineStr"/>
+      <c r="I1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr"/>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr"/>
+      <c r="E1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr"/>
+      <c r="H1120" t="inlineStr"/>
+      <c r="I1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr"/>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr"/>
+      <c r="E1121" t="inlineStr"/>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr"/>
+      <c r="H1121" t="inlineStr"/>
+      <c r="I1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 8647P673</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr"/>
+      <c r="H1122" t="inlineStr"/>
+      <c r="I1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>Summarized description: Private tour of the Orsay Museum in Paris. Get to know its most important pieces of art with your private official art specialised tour guide.</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr"/>
+      <c r="E1123" t="inlineStr"/>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr"/>
+      <c r="I1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>Title: Private visit to Orsay Museum with tour guide</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="inlineStr"/>
+      <c r="H1124" t="inlineStr"/>
+      <c r="I1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr"/>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
+      <c r="I1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr"/>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr"/>
+      <c r="H1126" t="inlineStr"/>
+      <c r="I1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
+      <c r="H1127" t="inlineStr"/>
+      <c r="I1127" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/13405P16.xlsx
+++ b/experiment_results/13405P16.xlsx
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Museums']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Museums']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Museums']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Museums']</t>
+          <t>Category: ['Museums', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -9096,7 +9096,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Workshops and Classes', 'Museums']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6159P27</t>
+          <t>PRODUCTCODE: 71076P25</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: The Rodin Museum and Orsay Museum offer a combined tour of the two museums. Includes a 1.5-hour guided tour of Rodin's famous "The Thinker"</t>
+          <t>Summarized description: This in-app audio tour explains how Impressionism was born and how Monet's painting technique evolved over time. You will gain insights on the genesis of the Water Lily collection and how the Orangerie was adapted.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Orsay Rodin Museums Private Tour</t>
+          <t>Title: Orangerie Museum Ticket with In-App Guide: Experience the Power of Impressionism</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 71076P25</t>
+          <t>PRODUCTCODE: 108889P39</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: This in-app audio tour explains how Impressionism was born and how Monet's painting technique evolved over time. You will gain insights on the genesis of the Water Lily collection and how the Orangerie was adapted.</t>
+          <t>Summarized description: The Camondo House Museum was bequeathed to France by Moise Camondo, the last of the Camondos. Its collections are intimately linked to family life. You can admire very beautiful paintings by Guardi or Vigée Lebrun.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Ticket with In-App Guide: Experience the Power of Impressionism</t>
+          <t>Title: Private Camondo Museum and Parc Monceau Tour in Paris</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>

--- a/experiment_results/13405P16.xlsx
+++ b/experiment_results/13405P16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1127"/>
+  <dimension ref="A1:I1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Museums']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Museums']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Museums']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Museums']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Museums']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050GCO</t>
+          <t>PRODUCTCODE: 224207P2</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day art tour to Giverny, Chatou and Musée de l'Orangerie in Paris. Led by a guide, the tour showcases the lives of the Impressionist trend setters.</t>
+          <t>Summarized description: Follow me inside the fascinating Orsay museum, where all the Monet, Van Gogh and Renoir masterpieces keep their secrets. I also do private tours of the Louvre and Rodin museums, as well as street art tours and french lessons.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Impressionist Art Tour: Giverny, Chatou and Musée de l'Orangerie</t>
+          <t>Title: Orsay museum private tour: The revolution of French art</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 224207P2</t>
+          <t>PRODUCTCODE: 2050MOG</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Follow me inside the fascinating Orsay museum, where all the Monet, Van Gogh and Renoir masterpieces keep their secrets. I also do private tours of the Louvre and Rodin museums, as well as street art tours and french lessons.</t>
+          <t>Summarized description: Full-day tour led by an art-expert guide. See Monet's famous ‘Water Lilies’ in Giverny. Explore Monet’s gardens with your guide.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Orsay museum private tour: The revolution of French art</t>
+          <t>Title: Impressionist Art Tour: Musée de l'Orangerie, Monet's Gardens and Giverny</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050MOG</t>
+          <t>PRODUCTCODE: 242324P22</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day tour led by an art-expert guide. See Monet's famous ‘Water Lilies’ in Giverny. Explore Monet’s gardens with your guide.</t>
+          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on Surprise Me App (included)</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Impressionist Art Tour: Musée de l'Orangerie, Monet's Gardens and Giverny</t>
+          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Private Audio Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 242324P22</t>
+          <t>PRODUCTCODE: 20455P325</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on Surprise Me App (included)</t>
+          <t>Summarized description: You will walk around the paintings and the sculptures of renowed artists such as Monet, Van Gogh, Renoir and many more. An art guide will lead you through the masterpieces and will share with you insights.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Private Audio Tour</t>
+          <t>Title: Musée d'Orsay Private Guided Tour in Paris</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 20455P325</t>
+          <t>PRODUCTCODE: 156946P9</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: You will walk around the paintings and the sculptures of renowed artists such as Monet, Van Gogh, Renoir and many more. An art guide will lead you through the masterpieces and will share with you insights.</t>
+          <t>Summarized description: You won't get lost because you will have a guide. I am going to share with you all the secrets of the museum. You will have fun while learning. The tour fit at your pace.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay Private Guided Tour in Paris</t>
+          <t>Title: Musée d'Orsay private tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 156946P9</t>
+          <t>PRODUCTCODE: 29942P33</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: You won't get lost because you will have a guide. I am going to share with you all the secrets of the museum. You will have fun while learning. The tour fit at your pace.</t>
+          <t>Summarized description: Our tour guides are art historians and experts in the specific periods &amp; movements represented in the Musée d'Orsay. Their extensive knowledge allows them to provide detailed insights into the historical context, artistic techniques, and the lives of the artists.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay private tour</t>
+          <t>Title: 2 Hours Private Guided Walking Tour in Orsay Museum</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29942P33</t>
+          <t>PRODUCTCODE: 6159P27</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Our tour guides are art historians and experts in the specific periods &amp; movements represented in the Musée d'Orsay. Their extensive knowledge allows them to provide detailed insights into the historical context, artistic techniques, and the lives of the artists.</t>
+          <t>Summarized description: The Rodin Museum and Orsay Museum offer a combined tour of the two museums. Includes a 1.5-hour guided tour of Rodin's famous "The Thinker"</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: 2 Hours Private Guided Walking Tour in Orsay Museum</t>
+          <t>Title: Orsay Rodin Museums Private Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108889P39</t>
+          <t>PRODUCTCODE: 8647P673</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: The Camondo House Museum was bequeathed to France by Moise Camondo, the last of the Camondos. Its collections are intimately linked to family life. You can admire very beautiful paintings by Guardi or Vigée Lebrun.</t>
+          <t>Summarized description: Private tour of the Orsay Museum in Paris. Get to know its most important pieces of art with your private official art specialised tour guide.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Private Camondo Museum and Parc Monceau Tour in Paris</t>
+          <t>Title: Private visit to Orsay Museum with tour guide</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P673</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17329,81 +17329,6 @@
       <c r="H1122" t="inlineStr"/>
       <c r="I1122" t="inlineStr"/>
     </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Summarized description: Private tour of the Orsay Museum in Paris. Get to know its most important pieces of art with your private official art specialised tour guide.</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr"/>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr"/>
-      <c r="I1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>Title: Private visit to Orsay Museum with tour guide</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr"/>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr"/>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr"/>
-      <c r="I1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
-      <c r="I1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr"/>
-      <c r="I1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
-      <c r="I1127" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/13405P16.xlsx
+++ b/experiment_results/13405P16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1626,7 +1626,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -7251,7 +7251,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B451" t="inlineStr"/>
@@ -7851,7 +7851,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -9126,7 +9126,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -10626,7 +10626,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B676" t="inlineStr"/>
@@ -11451,7 +11451,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -12276,7 +12276,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -12426,7 +12426,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B796" t="inlineStr"/>
@@ -13101,7 +13101,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13251,7 +13251,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13701,7 +13701,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13776,7 +13776,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -14226,7 +14226,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14451,7 +14451,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P7</t>
+          <t>PRODUCTCODE: 31070P157</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>Summarized description: Follow a private guide through the hallowed hallways and gain insight into thousands of years of art history. Discover famous works such as the 'Mona Lisa' or the 'Venus de Milo' and enjoy free time to explore further.</t>
+          <t>Summarized description: The Orangerie Museum (Musée de l’Orangerie) is a little museum with surprising collections. They are particularly emphasized by the Water Lilies (Les Nymphéas) by Claude Monet. The paintings are known to be a shelter for quiet meditation.</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum Paris Exclusive Guided Tour With Reserved Entry</t>
+          <t>Title: Musée de l'Orangerie Dedicate Entrance Tickets</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>TotalReviews: 3429</t>
+          <t>TotalReviews: 60</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P8</t>
+          <t>PRODUCTCODE: 70820P2</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5 hour semi-private (8 Guest Maximum) guided tour of the Louvre museum with Reserved Entry Included. This tour includes a visit to some of the most iconic pieces while also exploring the history behind the building.</t>
+          <t>Summarized description: The Musée de l’Orangerie is housed in a beautiful Beaux-Arts building in the Tuileries gardens. The museum is best known for the ‘Nymphéas’ water lilies by Claude Monet.</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum Guided Tour (Reserved Entry Included!) - Semi-Private 8ppl Max</t>
+          <t>Title: Skip the Line: Musee de l'Orangerie Reserved Access Ticket</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>TotalReviews: 1995</t>
+          <t>TotalReviews: 48</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9511P2</t>
+          <t>PRODUCTCODE: 6353P22</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour tour with a professional English speaking guide. Small group with a maximum of 6 people. Quick access at the museum without queuing.</t>
+          <t>Summarized description: The Orangerie is a former home for royal orange trees. It houses artwork by some of France’s most notable names. On this 2 hour exclusive guided museum tour, your expert guide will lead you through history to explain why this unique collection is one of the best in Paris.</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum Small Group English Guided Tour</t>
+          <t>Title: Orangerie Museum Paris Exclusive Tour Reserved Entry Included</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>TotalReviews: 390</t>
+          <t>TotalReviews: 45</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 102522P2</t>
+          <t>PRODUCTCODE: 6353P21</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Louvre Museum with your family choosing our two hour or three hours private tour led by a professional kid-friendly guide. You will be entertained and fascinated as your expert guide leads you through a world of art and history, engaging and inspiring your children.</t>
+          <t>Summarized description: Former home for royal orange trees, the Orangerie today houses artwork by some of France’s most notable names. Expert guide will lead you through history to explain why this unique, yet overlooked collection is one of the best in Paris.</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Title: Louvre Highlights Tour for Kids with Skip the Ticket Line</t>
+          <t>Title: Orangerie Museum Tour Semi Private 8ppl Max With Reserved Entry</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>TotalReviews: 143</t>
+          <t>TotalReviews: 35</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P129</t>
+          <t>PRODUCTCODE: 11571P21</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>Summarized description:  skip-the-line 3-hour tour offers time to appreciate some of the museum's most iconic paintings, sculptures, and architecture. Small group sizes of no more than 10 people also mean that your expert, English-speaking guide can adapt tours to suit each individual group.</t>
+          <t>Summarized description: The Rodin Museum in Paris is home to some of the world's most famous works of art. Rodin's work is considered to be one of the most beautiful examples of art in the world.</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Title: Semi-Private Louvre Museum Tour with Skip-the-Line Entry</t>
+          <t>Title: Rodin Museum Paris 2-Hour Private Guided Tour</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>TotalReviews: 108</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51919P9</t>
+          <t>PRODUCTCODE: 11571P22</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>Summarized description: A personal activity booklet will keep them hooked throughout this 2-hour museum tour. Your kids will be encouraged to spot the masterpieces’ hidden details. They will adore this kid-sized discovery.</t>
+          <t>Summarized description: Picasso Museum is housed in a splendid 17th-century mansion. Enjoy a 2-hour private guided tour of Paris’s Picasso Museum.</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Title: Family Treasure Hunt at the Louvre Museum</t>
+          <t>Title: Picasso Museum Paris 2-Hour Private Guided Tour</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>TotalReviews: 71</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P134</t>
+          <t>PRODUCTCODE: 239922P13</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Summarized description: The Musée d'Orsay is one of Paris' most famous museums. Enjoy a semi-private fully-guided tour of the museum. See masterpieces by the likes of Van Gogh, Monet and Renoir.</t>
+          <t>Summarized description: With a restricted access day ticket to the Musée de l'Orangerie, you can take your time exploring one of Paris's best art museums. See large polyptychs by Joan Mitchell and large-scale works by the modern 'primitives'</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Title: Paris: 2-Hour Musée d’Orsay Masterpieces Guided Tour</t>
+          <t>Title: Musée de l'Orangerie Reserved Access And Audio Guided</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>TotalReviews: 59</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9199P3</t>
+          <t>PRODUCTCODE: 302481P37</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Summarized description: 2-hour tour with a guide focuses on the major works of art. See sculptures such as 'Venus de Milo' and the 'Winged Victory of Samothrace' Tour is limited to six people for a small-group experience.</t>
+          <t>Summarized description: The mobile app helps you explore the Orangerie Museum with a private audio tour. You will have a fast-track entrance with a PDF ticket we will send to you. All you need is a mobile phone. Download tours in advance to listen without WiFi.</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum Small-Group Tour</t>
+          <t>Title: Musée de l'Orangerie Entrance Ticket with Audio Tour</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6353P21</t>
+          <t>PRODUCTCODE: 239343P22</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: Former home for royal orange trees, the Orangerie today houses artwork by some of France’s most notable names. Expert guide will lead you through history to explain why this unique, yet overlooked collection is one of the best in Paris.</t>
+          <t>Summarized description: The Musée d'Orsay houses works by Monet, Renoir, Manet, Cézanne, Degas, and Van Gogh. The museum is located inside a magnificent railroad station from the 19th century. The Musée de l'Orangerie is one of Paris's best art museums.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Tour Semi Private 8ppl Max With Reserved Entry</t>
+          <t>Title: Musée de l'Orangerie &amp; Musée de Orsay Reserved Access</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 35</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19551P13</t>
+          <t>PRODUCTCODE: 125317P2</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the secrets of Manet, Van Gogh and Monet and what makes their Art Revolution. Private 2.5 hours tour of the Musée d'Orsay.</t>
+          <t>Summarized description: The Orsay Museum is known as one of the most important Museums of Impressionist Art in the world. Our guides are specialised in guiding private tours for families with children and have prepared a lot of activities and games for them.</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Title: Orsay Museum Private Tour - Tickets &amp; Local expert guide</t>
+          <t>Title: Mamma Mia! Paris Orsay Museum Guided Tour with Kid-Friendly Activity</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67584P22</t>
+          <t>PRODUCTCODE: 3207ORSAY</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Summarized description: The semi-private Louvre tour is tailored to a maximum of six individuals. A seasoned art historian guide will unravel the secrets, anecdotes, and wonders hidden within each masterpiece.</t>
+          <t>Summarized description: Get an up-close look at the masterpieces of Impressionism at the Musée d'Orsay and Musée de l'Orangerie. Admire beautiful works of art, including Monet's incredible 'Water Lillies' series and Renoir’s 'Bal du Moulin de la Galette'</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Louvre Museum and Mona Lisa Small-Group Guided Tour </t>
+          <t>Title: Private Art History Walking Tour: Musée d'Orsay and Musée de l'Orangerie</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46334P43</t>
+          <t>PRODUCTCODE: 247361P22</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Summarized description: The Musée d’Orsay is home to a stunning array of world-famous Impressionist masterpieces. Skip the lines and enjoy a 2 hour small group guided tour, with 6 people or fewer.</t>
+          <t>Summarized description: Museum houses works from the French Impressionist and Post-Impressionist eras. Monet's Water Lilies Room, works by Picasso or Renoir, among many reknown artists.</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay Impressionists Semi-Private Guided Tour</t>
+          <t>Title: Entrance ticket to the Musée de L'Orangerie and audio guide</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 449245P1</t>
+          <t>PRODUCTCODE: 132681P39</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: This tour caters directly to the unique experience of each private group. Our local and licensed guides (by the French Ministry of Culture and Tourism) with their vast experience and in-depth knowledge of art and history are ready to deliver a Louvre visit that is tailored to you.</t>
+          <t>Summarized description: Explore the Musée d’Orsay on a 2-hour private guided tour. Learn about the masterpieces you’ll see during the tour and discuss the works that interest you most with your expert guide.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum Private Guided Tour</t>
+          <t>Title: Private Guided Tour Orsay Museum</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3731P141</t>
+          <t>PRODUCTCODE: 128905P167</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the world’s most famous museum, the Louvre, on a private 3-hour tour. Join your English-speaking private guide on this walk through history, adapted to suit your tastes.</t>
+          <t>Summarized description: Musée de l'Orangerie is an art gallery of impressionist and post-impressionist paintings. Admire Claude Monet's Water Lilies. Learn all about the impressionist movement.</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Title: Louvre Museum Private Guided Tour with Priority Access</t>
+          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE Entrance ticket</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2050P261</t>
+          <t>PRODUCTCODE: 332536P609</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: Learn the secrets of three of the Louvre’s biggest crowd-pleasers on this two-and-a-half-hour guided tour. You’ll waste no time waiting in line and head straight to the Mona Lisa. Then you’re free to wander around the museum on your own, coming face to face with works by great masters and discovering new personal favorites.</t>
+          <t>Summarized description: 3,5-hour round-trip transfer to the Musée de l'Orangerie in Paris. 4,000-year-old Musée d'Orsay in Paris is the world's oldest and most famous museum.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Louvre Museum Small Group Guided Tour </t>
+          <t>Title: Skip-the-line Musée de l'Orangerie and d'Orsay with Guide</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 132681P8</t>
+          <t>PRODUCTCODE: 13437P32</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: Private 2-hour tour includes an energetic family element. Participants will have be questionned about art and history. Tour is not suited for reduced mobility.</t>
+          <t>Summarized description: Discover Impressionist and Post-Impressionist masters during your 2-hour tour of the Orangerie Museum. Admire the unique exhibition with 8 of the great Water Lilies compositions by Monet.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Title: Private Family Tour of Louvre Museum. Specially designed for kids!</t>
+          <t>Title: Orangerie Museum Exclusive Guided Skip the Line Visit</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 131161P4</t>
+          <t>PRODUCTCODE: 9204P39</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: Take a private tour of the largest museum in the world completely tailored to your interests. An art historian acts as your guide as you visit famous works of art.</t>
+          <t>Summarized description: Immerse yourself in the colourful and expressive world of the Impressionists in this exclusively private, skip-the-line excursion of the Musée d’Orsay. A group max of 6 people means quality time with your own personal art historian as you journey along a timeline of unprecedented artistic achievement.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Title: Louvre Private Skip-the-Line Tour by an Art Historian Guide with Hotel Pickup</t>
+          <t>Title: Musée d'Orsay: 2-Hour Private Tour with Reserved Access</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 364009P1</t>
+          <t>PRODUCTCODE: 7832P198</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: Tolani Tour is a 2-hour tour of Paris. The tour is designed to create lasting memories that you'll cherish for years. We take care of all the planning and travel arrangements.</t>
+          <t>Summarized description: Discover the treasures of the Louvre Museum with our Private Visit tour. Led by a knowledgeable guide, this intimate experience offers pre-booked tickets and a maximum group size of 6.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Title: 2-Hour Private Tour in Paris</t>
+          <t>Title: Private Visit of the Louvre Museum</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 343759P10</t>
+          <t>PRODUCTCODE: 90219P390</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Private Louvre Tour is a tailor-made adventure through the world's most iconic museum. Your guide will illuminate the stories hidden within each artwork. With insider anecdotes and historical context, every piece comes alive.</t>
+          <t>Summarized description: Orsay Museum and Orangerie Museum offer a combined skip-the-line entry ticket. See Monet's "Water Lilies" cycle of paintings at both venues.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Title: Private Louvre Museum Guided Tour with Hotel-Pickup in Paris</t>
+          <t>Title: Paris: Best Historic Orsay and Orangerie Museums Ticket</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155928P1</t>
+          <t>PRODUCTCODE: 59104P45</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: Follow me in the Louvre, and I will show you this marvelous place. The Louvre museum is unique and huge place, that is advised to visit with a professional touristique guide at least during the first visit.</t>
+          <t>Summarized description: The Orangerie Museum is an art gallery of impressionist and post-impressionist paintings and modern art from the beginning of the century. It is located at the Place de la Concorde in Paris.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Louvre masterpieces in 2 hours</t>
+          <t>Title: Skip the Line: Tickets to L'orangerie &amp; Orsay Museums</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3207ORSAY</t>
+          <t>PRODUCTCODE: 248877P41</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Get an up-close look at the masterpieces of Impressionism at the Musée d'Orsay and Musée de l'Orangerie. Admire beautiful works of art, including Monet's incredible 'Water Lillies' series and Renoir’s 'Bal du Moulin de la Galette'</t>
+          <t>Summarized description: Get access to both the Orsay Museum and to the Orangerie Museum in the Tuileries Gardens. Marvel at works of art by a selection of world-famous artists in the prestigious permanent collections and temporary exhibitions. See Monet's "Water Lilies" cycle of paintings.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: Private Art History Walking Tour: Musée d'Orsay and Musée de l'Orangerie</t>
+          <t>Title: Paris: Exclusive Orsay Museum and Oragerie Museums Visit (Direct Entry)</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247361P22</t>
+          <t>PRODUCTCODE: 128905P295</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: Museum houses works from the French Impressionist and Post-Impressionist eras. Monet's Water Lilies Room, works by Picasso or Renoir, among many reknown artists.</t>
+          <t>Summarized description: The Musée d'Orsay has works by Gauguin, Monet, Manet, Degas, Renoir, Cézanne, and Van Gogh. The Musée de l'Orangerie is most famous for its massive Water Lilies.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: Entrance ticket to the Musée de L'Orangerie and audio guide</t>
+          <t>Title: Musée d'Orsay &amp; Musée de l'Orangerie: Dedicated Entrance &amp; Audio Tour</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P167</t>
+          <t>PRODUCTCODE: 104883P37</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: Musée de l'Orangerie is an art gallery of impressionist and post-impressionist paintings. Admire Claude Monet's Water Lilies. Learn all about the impressionist movement.</t>
+          <t>Summarized description: The Orsay museum houses a huge collection of Impressionist and Post-Impressionist art. You will see the world-renowned masterpieces, including Monet's ‘Blue Water Lilies,’ Cézanne’s ‘Apples and Oranges’ and Renoir’‘Montmartre’</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE Entrance ticket</t>
+          <t>Title: Skip-the-line Orsay Museum Private Tour in Paris for Kids and Families</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Workshops and Classes']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332536P609</t>
+          <t>PRODUCTCODE: 7824P21</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: 3,5-hour round-trip transfer to the Musée de l'Orangerie in Paris. 4,000-year-old Musée d'Orsay in Paris is the world's oldest and most famous museum.</t>
+          <t>Summarized description: The Orangerie Museum in Paris is home to one of the most famous paintings of all time, The Water Lilies by Claude Monet. Other works by Cézanne, Gaugin, Picasso, and many more are also on display.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line Musée de l'Orangerie and d'Orsay with Guide</t>
+          <t>Title: Orangerie Museum Private Tour</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13437P32</t>
+          <t>PRODUCTCODE: 226727P18</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Impressionist and Post-Impressionist masters during your 2-hour tour of the Orangerie Museum. Admire the unique exhibition with 8 of the great Water Lilies compositions by Monet.</t>
+          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on WeGoTrip App (included)</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: Orangerie Museum Exclusive Guided Skip the Line Visit</t>
+          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Audio Tour on Mobile App</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9204P39</t>
+          <t>PRODUCTCODE: 224477P8</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: Immerse yourself in the colourful and expressive world of the Impressionists in this exclusively private, skip-the-line excursion of the Musée d’Orsay. A group max of 6 people means quality time with your own personal art historian as you journey along a timeline of unprecedented artistic achievement.</t>
+          <t>Summarized description: Take an exclusive and engaging tour of the Orsay and Orangerie with an art history professor. The Orsay is home to one of the most stunning collections of Impressionist masterpieces. We'll discover the artists whose innovations paved the way for the Impressionists.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay: 2-Hour Private Tour with Reserved Access</t>
+          <t>Title: Private Combo Orsay &amp; Orangerie Art History Tour with Professor Jimerson</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 125512P120</t>
+          <t>PRODUCTCODE: 2050GCO</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: Take in the highlights of France’s national art collection with a private tour of the Louvre. Follow your private guide through the grand hallways and galleries. Marvel at masterpieces such as the Venus de Milo and the Mona Lisa.</t>
+          <t>Summarized description: Full-day art tour to Giverny, Chatou and Musée de l'Orangerie in Paris. Led by a guide, the tour showcases the lives of the Impressionist trend setters.</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Title: Private Louvre Guided Tour With Admission Tickets</t>
+          <t>Title: Impressionist Art Tour: Giverny, Chatou and Musée de l'Orangerie</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 110930P3</t>
+          <t>PRODUCTCODE: 224207P2</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: Art historian, curator of international exhibitions, teacher. Art is a passion and it is my profession. It is an infinity of stories to unveil, to tell, to share.</t>
+          <t>Summarized description: Follow me inside the fascinating Orsay museum, where all the Monet, Van Gogh and Renoir masterpieces keep their secrets. I also do private tours of the Louvre and Rodin museums, as well as street art tours and french lessons.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title: A Private Visit to the Musée d'Orsay</t>
+          <t>Title: Orsay museum private tour: The revolution of French art</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P390</t>
+          <t>PRODUCTCODE: 2050MOG</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: Orsay Museum and Orangerie Museum offer a combined skip-the-line entry ticket. See Monet's "Water Lilies" cycle of paintings at both venues.</t>
+          <t>Summarized description: Full-day tour led by an art-expert guide. See Monet's famous ‘Water Lilies’ in Giverny. Explore Monet’s gardens with your guide.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: Paris: Best Historic Orsay and Orangerie Museums Ticket</t>
+          <t>Title: Impressionist Art Tour: Musée de l'Orangerie, Monet's Gardens and Giverny</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 59104P45</t>
+          <t>PRODUCTCODE: 242324P22</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: The Orangerie Museum is an art gallery of impressionist and post-impressionist paintings and modern art from the beginning of the century. It is located at the Place de la Concorde in Paris.</t>
+          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on Surprise Me App (included)</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Tickets to L'orangerie &amp; Orsay Museums</t>
+          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Private Audio Tour</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 248877P41</t>
+          <t>PRODUCTCODE: 20455P325</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: Get access to both the Orsay Museum and to the Orangerie Museum in the Tuileries Gardens. Marvel at works of art by a selection of world-famous artists in the prestigious permanent collections and temporary exhibitions. See Monet's "Water Lilies" cycle of paintings.</t>
+          <t>Summarized description: You will walk around the paintings and the sculptures of renowed artists such as Monet, Van Gogh, Renoir and many more. An art guide will lead you through the masterpieces and will share with you insights.</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: Paris: Exclusive Orsay Museum and Oragerie Museums Visit (Direct Entry)</t>
+          <t>Title: Musée d'Orsay Private Guided Tour in Paris</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12332P12</t>
+          <t>PRODUCTCODE: 235760P41</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the Musée d'Orsay during a 2.5-hour private tour with an Art Historian Guide. Your guide will contact you a few days prior to your visit to define the program of this tour.</t>
+          <t>Summarized description: The best of the Louvre in just 1.5 hours. Skip the line and explore all the highlights with a professional expert guide. 100% personalized around your interests. Private tour: only you &amp; your private guide.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Title: Orsay Museum tour with a Private Art Historian Guide</t>
+          <t>Title: Paris : Historical The Louvre Museum Private Group Tour</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 128905P295</t>
+          <t>PRODUCTCODE: 71076P25</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: The Musée d'Orsay has works by Gauguin, Monet, Manet, Degas, Renoir, Cézanne, and Van Gogh. The Musée de l'Orangerie is most famous for its massive Water Lilies.</t>
+          <t>Summarized description: This in-app audio tour explains how Impressionism was born and how Monet's painting technique evolved over time. You will gain insights on the genesis of the Water Lily collection and how the Orangerie was adapted.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Title: Musée d'Orsay &amp; Musée de l'Orangerie: Dedicated Entrance &amp; Audio Tour</t>
+          <t>Title: Orangerie Museum Ticket with In-App Guide: Experience the Power of Impressionism</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Category: ['Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 29942P34</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17134,1206 +17134,6 @@
       <c r="H1109" t="inlineStr"/>
       <c r="I1109" t="inlineStr"/>
     </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>Summarized description: Our guides are experts in art, history, and culture. Their deep understanding of the Louvre's vast collection allows them to provide insightful and captivating narratives. Small group sizes ensure personalized attention for each participant.</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr"/>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr"/>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr"/>
-      <c r="H1110" t="inlineStr"/>
-      <c r="I1110" t="inlineStr"/>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>Title: 2 Hour Louvre Museum Private Walking Tour with Licensed Guide</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr"/>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr"/>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr"/>
-      <c r="H1111" t="inlineStr"/>
-      <c r="I1111" t="inlineStr"/>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr"/>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr"/>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr"/>
-      <c r="H1112" t="inlineStr"/>
-      <c r="I1112" t="inlineStr"/>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr"/>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr"/>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr"/>
-      <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr"/>
-      <c r="I1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7824P21</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr"/>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr"/>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr"/>
-      <c r="I1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>Summarized description: The Orangerie Museum in Paris is home to one of the most famous paintings of all time, The Water Lilies by Claude Monet. Other works by Cézanne, Gaugin, Picasso, and many more are also on display.</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr"/>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr"/>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr"/>
-      <c r="I1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>Title: Orangerie Museum Private Tour</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr"/>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr"/>
-      <c r="E1116" t="inlineStr"/>
-      <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr"/>
-      <c r="I1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr"/>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr"/>
-      <c r="I1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr"/>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr"/>
-      <c r="H1118" t="inlineStr"/>
-      <c r="I1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 7817P72</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr"/>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr"/>
-      <c r="I1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the most famous and significant halls of the enormous museum with an individual guide. In the end, the driver will drop you off at your hotel.</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-      <c r="H1120" t="inlineStr"/>
-      <c r="I1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>Title: Paris Tour including Louvre Museum Private Visit</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr"/>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr"/>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr"/>
-      <c r="H1121" t="inlineStr"/>
-      <c r="I1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr"/>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr"/>
-      <c r="H1122" t="inlineStr"/>
-      <c r="I1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr"/>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr"/>
-      <c r="I1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 239576P7</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr"/>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr"/>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr"/>
-      <c r="I1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the world's largest art museum in just 2 hours with our guide. Discover Egyptian antiquities, Islamic art, Decorative arts, Egyptian antiques and Painting. Also explore the Louvre highlights: Venus of Milo, Monalisa.</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
-      <c r="I1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>Title: Paris Louvre Museum 2-Hour Private Group Tour (Premium and Private)</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr"/>
-      <c r="I1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
-      <c r="I1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr"/>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr"/>
-      <c r="G1128" t="inlineStr"/>
-      <c r="H1128" t="inlineStr"/>
-      <c r="I1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 226727P18</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr"/>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr"/>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr"/>
-      <c r="I1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on WeGoTrip App (included)</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
-      <c r="I1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Audio Tour on Mobile App</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr"/>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr"/>
-      <c r="H1131" t="inlineStr"/>
-      <c r="I1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr"/>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr"/>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr"/>
-      <c r="H1132" t="inlineStr"/>
-      <c r="I1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr"/>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr"/>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
-      <c r="H1133" t="inlineStr"/>
-      <c r="I1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 422159P11</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr"/>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr"/>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr"/>
-      <c r="I1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>Summarized description: The L'Orangerie Museum is a jewel of art in Paris, notable for housing Claude Monet's impressive "Water Lilies" series. The museum exhibits a valuable collection of Impressionist and Post-Impressionist art by artists such as Renoir, Cézanne, Modigliani, Picasso.</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr"/>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr"/>
-      <c r="I1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>Title: Ticket to the L'Orangerie Museum</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr"/>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr"/>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr"/>
-      <c r="I1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr"/>
-      <c r="I1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr"/>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr"/>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr"/>
-      <c r="I1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 224477P8</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
-      <c r="I1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>Summarized description: Take an exclusive and engaging tour of the Orsay and Orangerie with an art history professor. The Orsay is home to one of the most stunning collections of Impressionist masterpieces. We'll discover the artists whose innovations paved the way for the Impressionists.</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr"/>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
-      <c r="H1140" t="inlineStr"/>
-      <c r="I1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>Title: Private Combo Orsay &amp; Orangerie Art History Tour with Professor Jimerson</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr"/>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
-      <c r="H1141" t="inlineStr"/>
-      <c r="I1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr"/>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
-      <c r="H1142" t="inlineStr"/>
-      <c r="I1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr"/>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr"/>
-      <c r="I1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 235760P14</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr"/>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr"/>
-      <c r="I1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the artsy treasures that are hidden within the Musee d'Orsay without a line wait. Go straight to explore and see the most amazing Impressionism artwork with your local host skipping the line tickets.</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr"/>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr"/>
-      <c r="I1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>Title: Exclusive France : Musee d'Orsay Impressionism Private Tour</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr"/>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr"/>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
-      <c r="H1146" t="inlineStr"/>
-      <c r="I1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr"/>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
-      <c r="H1147" t="inlineStr"/>
-      <c r="I1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr"/>
-      <c r="I1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6159P17</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
-      <c r="I1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>Summarized description: The Louvre is best explored and appreciated in a short amount of time on a privately guided tour. We offer a 1-hour 30 minute private tour for your group. The tour is offered at a set price for up to 6 people.</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-      <c r="I1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Title: 1.5 Hour Louvre Museum Must-See Private Guided Tour - Group Option</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
-      <c r="I1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
-      <c r="I1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
-      <c r="H1153" t="inlineStr"/>
-      <c r="I1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 247562P244</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr"/>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
-      <c r="H1154" t="inlineStr"/>
-      <c r="I1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>Summarized description: The Louvre is home to some 35,000 artworks spread over three wings. This 3-hour private tour allows you to make the most of your time. A driver will pick you up at your hotel and take you to the museum.</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr"/>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
-      <c r="H1155" t="inlineStr"/>
-      <c r="I1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Title: Private Louvre</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr"/>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr"/>
-      <c r="H1156" t="inlineStr"/>
-      <c r="I1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr"/>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
-      <c r="H1157" t="inlineStr"/>
-      <c r="I1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr"/>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
-      <c r="H1158" t="inlineStr"/>
-      <c r="I1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 192121P1</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr"/>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr"/>
-      <c r="H1159" t="inlineStr"/>
-      <c r="I1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>Summarized description: Half day tour can be perfectly combined with an Orsay museum (Impressionist masterpieces) or the Orangerie museum (Monet's waterlilies and other impressionist works)</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr"/>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
-      <c r="H1160" t="inlineStr"/>
-      <c r="I1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Title: Impressionist Paris</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
-      <c r="I1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
-      <c r="I1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr"/>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr"/>
-      <c r="H1163" t="inlineStr"/>
-      <c r="I1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 60672P103</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr"/>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
-      <c r="H1164" t="inlineStr"/>
-      <c r="I1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>Summarized description: You will save time at the entrance to the museum thanks to our Skip the line. After your 2 hour guided visit, you can continue on to explore the rest of the museum at your own pace.</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
-      <c r="I1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>Title: Paris: Louvre Museum with official guided tour</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
-      <c r="H1166" t="inlineStr"/>
-      <c r="I1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
-      <c r="H1167" t="inlineStr"/>
-      <c r="I1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr"/>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
-      <c r="H1168" t="inlineStr"/>
-      <c r="I1168" t="inlineStr"/>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 224207P2</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr"/>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
-      <c r="H1169" t="inlineStr"/>
-      <c r="I1169" t="inlineStr"/>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>Summarized description: Follow me inside the fascinating Orsay museum, where all the Monet, Van Gogh and Renoir masterpieces keep their secrets. I also do private tours of the Louvre and Rodin museums, as well as street art tours and french lessons.</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr"/>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
-      <c r="H1170" t="inlineStr"/>
-      <c r="I1170" t="inlineStr"/>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Title: Orsay museum private tour: The revolution of French art</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
-      <c r="I1171" t="inlineStr"/>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
-      <c r="I1172" t="inlineStr"/>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-      <c r="H1173" t="inlineStr"/>
-      <c r="I1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 2050MOG</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
-      <c r="I1174" t="inlineStr"/>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Summarized description: Full-day tour led by an art-expert guide. See Monet's famous ‘Water Lilies’ in Giverny. Explore Monet’s gardens with your guide.</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
-      <c r="I1175" t="inlineStr"/>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>Title: Impressionist Art Tour: Musée de l'Orangerie, Monet's Gardens and Giverny</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr"/>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
-      <c r="H1176" t="inlineStr"/>
-      <c r="I1176" t="inlineStr"/>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr"/>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
-      <c r="H1177" t="inlineStr"/>
-      <c r="I1177" t="inlineStr"/>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
-      <c r="H1178" t="inlineStr"/>
-      <c r="I1178" t="inlineStr"/>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 242324P22</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
-      <c r="H1179" t="inlineStr"/>
-      <c r="I1179" t="inlineStr"/>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>Summarized description: Musée de l'Orangerie is a gallery of Impressionist and Post-Impressionist paintings. Explore the museum with a private audio tour available on Surprise Me App (included)</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr"/>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr"/>
-      <c r="H1180" t="inlineStr"/>
-      <c r="I1180" t="inlineStr"/>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Title: Musée de l'Orangerie: SKIP-THE-LINE ticket &amp; Private Audio Tour</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr"/>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
-      <c r="H1181" t="inlineStr"/>
-      <c r="I1181" t="inlineStr"/>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
-      <c r="I1182" t="inlineStr"/>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Category: ['Museums']</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-      <c r="H1183" t="inlineStr"/>
-      <c r="I1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 71076P25</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr"/>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
-      <c r="H1184" t="inlineStr"/>
-      <c r="I1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Summarized description: This in-app audio tour explains how Impressionism was born and how Monet's painting technique evolved over time. You will gain insights on the genesis of the Water Lily collection and how the Orangerie was adapted.</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr"/>
-      <c r="I1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>Title: Orangerie Museum Ticket with In-App Guide: Experience the Power of Impressionism</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr"/>
-      <c r="I1186" t="inlineStr"/>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr"/>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr"/>
-      <c r="I1187" t="inlineStr"/>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
